--- a/biology/Zoologie/Cornouailles_(film,_1994)/Cornouailles_(film,_1994).xlsx
+++ b/biology/Zoologie/Cornouailles_(film,_1994)/Cornouailles_(film,_1994).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cornouailles  (intitulé Icewarrior en anglais) est le dernier film réalisé par Pierre Perrault sorti en 1994. Le documentaire a été tourné à l'île d'Ellesmere, au Nunavut (Canada).
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Durant 120 jours, l'équipe observe et étudie les bœufs musqués de la région. On explique notamment leur mode de vie, leur alimentation, l'organisation du troupeau et les revendications de territoire entre deux bœufs musqués rivaux.
 Le film étudie également différentes espèces végétales telles que le lichen et le Salix polaris ainsi qu'animales telles que l'Eider à duvet et le Labbe à longue queue.
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Cornouailles
 Titre anglais : Icewarrior
@@ -581,7 +597,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Michel Garneau : Narrateur (voix)</t>
         </is>
